--- a/CashFlow/OKTA_cashflow.xlsx
+++ b/CashFlow/OKTA_cashflow.xlsx
@@ -498,19 +498,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4081000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1104000.0</v>
+        <v>22000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>15885000.0</v>
+        <v>32348000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>17608000.0</v>
+        <v>25938000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>21096000.0</v>
+        <v>25369000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>24766000.0</v>
